--- a/backend/output/Facturas_Procesadas.xlsx
+++ b/backend/output/Facturas_Procesadas.xlsx
@@ -433,31 +433,31 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>FACTURA ELECTRONICA DIGITAL - MES DE MAYO - CENTRO ENCINA.pdf</v>
+        <v>Factura Febrero 2025.pdf</v>
       </c>
       <c r="B2" t="str">
-        <v>05/08/2020</v>
+        <v>01/02/2025</v>
       </c>
       <c r="C2" t="str">
-        <v>05/08/2020</v>
+        <v>01/02/2025</v>
       </c>
       <c r="D2" t="str">
-        <v>05/08/2020</v>
+        <v>28/02/2025</v>
       </c>
       <c r="E2" t="str">
-        <v>05/08/2020</v>
+        <v>14/04/2025</v>
       </c>
       <c r="F2" t="str">
-        <v>00005-000050000</v>
+        <v>00002-00000058</v>
       </c>
       <c r="G2" t="str">
-        <v>27066721774</v>
+        <v>27399798383</v>
       </c>
       <c r="H2" t="str">
-        <v>70324865238662</v>
+        <v>75153460752684</v>
       </c>
       <c r="I2" t="str">
-        <v>15/08/2020</v>
+        <v>24/04/2025</v>
       </c>
     </row>
   </sheetData>
